--- a/downloaded_files/MEPS446_Lecture-35590.xlsx
+++ b/downloaded_files/MEPS446_Lecture-35590.xlsx
@@ -1553,11 +1553,11 @@
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Applications of Turbomachinery (MEPS446) Location : [18203]18203-30-الجيزة الرئيسي Time : Sunday(9:11)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Applications of Turbomachinery (MEPS446) Location : [0]17101-0-الجيزة الرئيسي Time : Sunday(9:11)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Applications of Turbomachinery (MEPS446) Location : [18203]18203-30-الجيزة الرئيسي Time : Sunday(9:11)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Applications of Turbomachinery (MEPS446) Location : [0]17101-0-الجيزة الرئيسي Time : Sunday(9:11)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Applications of Turbomachinery (MEPS446) Location : [18203]18203-30-الجيزة الرئيسي Time : Sunday(9:11)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Applications of Turbomachinery (MEPS446) Location : [0]17101-0-الجيزة الرئيسي Time : Sunday(9:11)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
   <x:tableParts count="1">

--- a/downloaded_files/MEPS446_Lecture-35590.xlsx
+++ b/downloaded_files/MEPS446_Lecture-35590.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -256,6 +256,15 @@
   </x:si>
   <x:si>
     <x:t>Youssef Khaled Ahmed Kadry Saleh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1180217</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف محمد فاروق محمد فوزى عريبه</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yousef Mohamed Farouk Mohamed Fawzy Oraiba</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -371,7 +380,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -671,7 +680,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T26"/>
+  <x:dimension ref="A1:T27"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -680,7 +689,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="33.540625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="40.440625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="44.370625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -1547,6 +1556,38 @@
       <x:c r="R26" s="2" t="s"/>
       <x:c r="S26" s="2" t="s"/>
       <x:c r="T26" s="2" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:20">
+      <x:c r="A27" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B27" s="2" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="D27" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="E27" s="3">
+        <x:v>45937.4320810185</x:v>
+      </x:c>
+      <x:c r="F27" s="2" t="s"/>
+      <x:c r="G27" s="2" t="s"/>
+      <x:c r="H27" s="2" t="s"/>
+      <x:c r="I27" s="2" t="s"/>
+      <x:c r="J27" s="2" t="s"/>
+      <x:c r="K27" s="2" t="s"/>
+      <x:c r="L27" s="2" t="s"/>
+      <x:c r="M27" s="2" t="s"/>
+      <x:c r="N27" s="2" t="s"/>
+      <x:c r="O27" s="2" t="s"/>
+      <x:c r="P27" s="2" t="s"/>
+      <x:c r="Q27" s="2" t="s"/>
+      <x:c r="R27" s="2" t="s"/>
+      <x:c r="S27" s="2" t="s"/>
+      <x:c r="T27" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
